--- a/Result/checkall/2025-02-09.xlsx
+++ b/Result/checkall/2025-02-09.xlsx
@@ -466,72 +466,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>價能O</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>recommend</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>recommend2</t>
+          <t>成交金額</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>量增</t>
+          <t>change_quote</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>成交金額</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>量比</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
